--- a/Universe.xlsx
+++ b/Universe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/36a87f973740ffce/Documents/Personal/Finance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="8_{1ECEE35D-5132-2D4F-A327-3EA275918476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7989D6D2-A918-4183-942C-317626BC422F}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="8_{1ECEE35D-5132-2D4F-A327-3EA275918476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E89A9F4-CAC8-47FF-903C-F69C1F81FFE0}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="975" yWindow="825" windowWidth="25605" windowHeight="11805" xr2:uid="{4BF13245-5E03-604C-ABB7-16F5426C5494}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4BF13245-5E03-604C-ABB7-16F5426C5494}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t xml:space="preserve">Company </t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t xml:space="preserve">MCD US </t>
+  </si>
+  <si>
+    <t>Q225</t>
   </si>
 </sst>
 </file>
@@ -253,69 +256,72 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="WACC"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="3">
           <cell r="J3">
-            <v>137.32</v>
+            <v>129</v>
           </cell>
         </row>
         <row r="5">
           <cell r="J5">
-            <v>85138.4</v>
+            <v>80109</v>
           </cell>
         </row>
         <row r="6">
           <cell r="J6">
-            <v>11492</v>
+            <v>11356</v>
           </cell>
         </row>
         <row r="7">
           <cell r="J7">
-            <v>1995</v>
+            <v>1997</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1">
+      <sheetData sheetId="1">
         <row r="6">
           <cell r="AE6">
             <v>11102</v>
           </cell>
         </row>
+        <row r="17">
+          <cell r="AN17">
+            <v>146.0986410486793</v>
+          </cell>
+        </row>
         <row r="19">
           <cell r="AE19">
             <v>2648</v>
           </cell>
         </row>
-        <row r="26">
-          <cell r="AE26">
+        <row r="28">
+          <cell r="AE28">
             <v>0.11949178178884744</v>
           </cell>
         </row>
-        <row r="33">
-          <cell r="AE33">
+        <row r="36">
+          <cell r="AE36">
             <v>0.83084128985768335</v>
           </cell>
         </row>
-        <row r="34">
-          <cell r="AE34">
+        <row r="37">
+          <cell r="AE37">
             <v>0.2299585660241398</v>
           </cell>
         </row>
-        <row r="35">
-          <cell r="AE35">
+        <row r="38">
+          <cell r="AE38">
             <v>0.23851558277787785</v>
           </cell>
         </row>
-        <row r="41">
-          <cell r="AK41">
-            <v>0.09</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="AK44">
-            <v>150.58465881324776</v>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="C3">
+            <v>0.11237200000000003</v>
           </cell>
         </row>
       </sheetData>
@@ -335,29 +341,9 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>10.43</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>41475.403660669996</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>35226</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>155270</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>161519.40366066998</v>
+        <row r="4">
+          <cell r="K4">
+            <v>181.4</v>
           </cell>
         </row>
       </sheetData>
@@ -367,6 +353,48 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>10.43</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>41475.403660669996</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>35226</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>155270</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>161519.40366066998</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -435,101 +463,18 @@
         </row>
         <row r="39">
           <cell r="M39">
-            <v>0.16608090288315625</v>
+            <v>0.10003062670713202</v>
           </cell>
         </row>
         <row r="42">
           <cell r="M42">
-            <v>268.68381136696445</v>
+            <v>230.59910526227645</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="C2">
-            <v>289</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>206644.24800000002</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>1238</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>52763</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>258169.24800000002</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="6">
-          <cell r="I6">
-            <v>25920</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="I18">
-            <v>8224</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="I20">
-            <v>1.6396604938271605E-2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="I21">
-            <v>0.56751543209876543</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="I22">
-            <v>0.45185185185185184</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="I23">
-            <v>0.31728395061728393</v>
-          </cell>
-          <cell r="L23">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="L27">
-            <v>259.34591994294789</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -543,15 +488,83 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="WACC"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="2">
+          <cell r="C2">
+            <v>309.5</v>
+          </cell>
+        </row>
         <row r="4">
-          <cell r="K4">
-            <v>181.4</v>
+          <cell r="C4">
+            <v>220673.5</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>1876</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>55181</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>273978.5</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>33.3145063229572</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1">
+        <row r="6">
+          <cell r="I6">
+            <v>25920</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="I18">
+            <v>8224</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="I26">
+            <v>1.6396604938271605E-2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="I30">
+            <v>0.56751543209876543</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="I31">
+            <v>0.45185185185185184</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="I32">
+            <v>0.31728395061728393</v>
+          </cell>
+          <cell r="L32">
+            <v>0.06</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="L34">
+            <v>281.87848669008042</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -891,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A01154-A377-884D-B3AC-4B91CBB44A80}">
   <dimension ref="A2:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17:N17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
@@ -958,7 +971,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>18</v>
@@ -971,23 +984,23 @@
       </c>
       <c r="E3" s="2">
         <f>[1]Main!$J$3</f>
-        <v>137.32</v>
+        <v>129</v>
       </c>
       <c r="F3" s="2">
         <f>[1]Main!$J$5</f>
-        <v>85138.4</v>
+        <v>80109</v>
       </c>
       <c r="G3" s="2">
         <f>[1]Main!$J$6-[1]Main!$J$7</f>
-        <v>9497</v>
+        <v>9359</v>
       </c>
       <c r="H3" s="2">
         <f>F3-G3</f>
-        <v>75641.399999999994</v>
+        <v>70750</v>
       </c>
       <c r="I3" s="2">
         <f>H3/[1]Model!$AE$19</f>
-        <v>28.565483383685798</v>
+        <v>26.718277945619334</v>
       </c>
       <c r="J3" s="2">
         <f>[1]Model!$AE$6</f>
@@ -998,32 +1011,32 @@
         <v>2648</v>
       </c>
       <c r="L3" s="6">
-        <f>[1]Model!$AE$26</f>
+        <f>[1]Model!$AE$28</f>
         <v>0.11949178178884744</v>
       </c>
       <c r="M3" s="6">
-        <f>[1]Model!$AE$33</f>
+        <f>[1]Model!$AE$36</f>
         <v>0.83084128985768335</v>
       </c>
       <c r="N3" s="6">
-        <f>[1]Model!$AE$34</f>
+        <f>[1]Model!$AE$37</f>
         <v>0.2299585660241398</v>
       </c>
       <c r="O3" s="6">
-        <f>[1]Model!$AE$35</f>
+        <f>[1]Model!$AE$38</f>
         <v>0.23851558277787785</v>
       </c>
       <c r="P3" s="6">
-        <f>[1]Model!$AK$41</f>
-        <v>0.09</v>
+        <f>[1]WACC!$C$3</f>
+        <v>0.11237200000000003</v>
       </c>
       <c r="Q3" s="2">
-        <f>[1]Model!$AK$44</f>
-        <v>150.58465881324776</v>
+        <f>[1]Model!$AN$17</f>
+        <v>146.0986410486793</v>
       </c>
       <c r="R3" s="6">
         <f>(Q3/E3)-1</f>
-        <v>9.6596699776054118E-2</v>
+        <v>0.1325476050285217</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1040,7 +1053,7 @@
         <v>23</v>
       </c>
       <c r="E4" s="5">
-        <f>[5]Main!$K$4</f>
+        <f>[2]Main!$K$4</f>
         <v>181.4</v>
       </c>
       <c r="F4" s="2"/>
@@ -1066,19 +1079,19 @@
         <v>26</v>
       </c>
       <c r="E5" s="2">
-        <f>[2]Main!$C$3</f>
+        <f>[3]Main!$C$3</f>
         <v>10.43</v>
       </c>
       <c r="F5" s="2">
-        <f>[2]Main!$C$5</f>
+        <f>[3]Main!$C$5</f>
         <v>41475.403660669996</v>
       </c>
       <c r="G5" s="2">
-        <f>[2]Main!$C$6-[2]Main!$C$7</f>
+        <f>[3]Main!$C$6-[3]Main!$C$7</f>
         <v>-120044</v>
       </c>
       <c r="H5" s="2">
-        <f>[2]Main!$C$8</f>
+        <f>[3]Main!$C$8</f>
         <v>161519.40366066998</v>
       </c>
       <c r="I5" s="2"/>
@@ -1089,7 +1102,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>27</v>
@@ -1101,15 +1114,15 @@
         <v>29</v>
       </c>
       <c r="E6" s="2">
-        <f>[3]Main!$I$5</f>
+        <f>[4]Main!$I$5</f>
         <v>243</v>
       </c>
       <c r="F6" s="2">
-        <f>[3]Main!$I$7</f>
+        <f>[4]Main!$I$7</f>
         <v>42768</v>
       </c>
       <c r="G6" s="2">
-        <f>[3]Main!$I$8-[3]Main!$I$9</f>
+        <f>[4]Main!$I$8-[4]Main!$I$9</f>
         <v>-8869</v>
       </c>
       <c r="H6" s="2">
@@ -1117,49 +1130,49 @@
         <v>51637</v>
       </c>
       <c r="I6" s="2">
-        <f>H6/[3]Model!$J$18</f>
+        <f>H6/[4]Model!$J$18</f>
         <v>36.160364145658264</v>
       </c>
       <c r="J6" s="2">
-        <f>[3]Model!$J$4</f>
+        <f>[4]Model!$J$4</f>
         <v>14048</v>
       </c>
       <c r="K6" s="2">
-        <f>[3]Model!$J$18</f>
+        <f>[4]Model!$J$18</f>
         <v>1428</v>
       </c>
       <c r="L6" s="6">
-        <f>[3]Model!$J$27</f>
+        <f>[4]Model!$J$27</f>
         <v>0.19151823579304494</v>
       </c>
       <c r="M6" s="6">
-        <f>[3]Model!$J$31</f>
+        <f>[4]Model!$J$31</f>
         <v>0.4770785876993166</v>
       </c>
       <c r="N6" s="6">
-        <f>[3]Model!$J$32</f>
+        <f>[4]Model!$J$32</f>
         <v>6.1859339407744872E-2</v>
       </c>
       <c r="O6" s="6">
-        <f>[3]Model!$J$33</f>
+        <f>[4]Model!$J$33</f>
         <v>1.1531890660592256E-2</v>
       </c>
       <c r="P6" s="6">
-        <f>[3]Model!$M$39</f>
-        <v>0.16608090288315625</v>
+        <f>[4]Model!$M$39</f>
+        <v>0.10003062670713202</v>
       </c>
       <c r="Q6" s="2">
-        <f>[3]Model!$M$42</f>
-        <v>268.68381136696445</v>
+        <f>[4]Model!$M$42</f>
+        <v>230.59910526227645</v>
       </c>
       <c r="R6" s="6">
         <f t="shared" ref="R6:R7" si="1">(Q6/E6)-1</f>
-        <v>0.10569469698339273</v>
+        <v>-5.1032488632607231E-2</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>30</v>
@@ -1171,60 +1184,60 @@
         <v>32</v>
       </c>
       <c r="E7" s="2">
-        <f>[4]Main!$C$2</f>
-        <v>289</v>
+        <f>[5]Main!$C$2</f>
+        <v>309.5</v>
       </c>
       <c r="F7" s="2">
-        <f>[4]Main!$C$4</f>
-        <v>206644.24800000002</v>
+        <f>[5]Main!$C$4</f>
+        <v>220673.5</v>
       </c>
       <c r="G7" s="2">
-        <f>[4]Main!$C$5-[4]Main!$C$6</f>
-        <v>-51525</v>
+        <f>[5]Main!$C$5-[5]Main!$C$6</f>
+        <v>-53305</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="0"/>
-        <v>258169.24800000002</v>
+        <f>[5]Main!$C$7</f>
+        <v>273978.5</v>
       </c>
       <c r="I7" s="2">
-        <f>[4]Main!$C$7/[4]Model!$I$18</f>
-        <v>31.392175097276269</v>
+        <f>[5]Main!$C$8</f>
+        <v>33.3145063229572</v>
       </c>
       <c r="J7" s="2">
-        <f>[4]Model!$I$6</f>
+        <f>[5]Model!$I$6</f>
         <v>25920</v>
       </c>
       <c r="K7" s="2">
-        <f>[4]Model!$I$18</f>
+        <f>[5]Model!$I$18</f>
         <v>8224</v>
       </c>
       <c r="L7" s="6">
-        <f>[4]Model!$I$20</f>
+        <f>[5]Model!$I$26</f>
         <v>1.6396604938271605E-2</v>
       </c>
       <c r="M7" s="6">
-        <f>[4]Model!$I$21</f>
+        <f>[5]Model!$I$30</f>
         <v>0.56751543209876543</v>
       </c>
       <c r="N7" s="6">
-        <f>[4]Model!$I$22</f>
+        <f>[5]Model!$I$31</f>
         <v>0.45185185185185184</v>
       </c>
       <c r="O7" s="6">
-        <f>[4]Model!$I$23</f>
+        <f>[5]Model!$I$32</f>
         <v>0.31728395061728393</v>
       </c>
       <c r="P7" s="6">
-        <f>[4]Model!$L$23</f>
-        <v>7.0000000000000007E-2</v>
+        <f>[5]Model!$L$32</f>
+        <v>0.06</v>
       </c>
       <c r="Q7" s="2">
-        <f>[4]Model!$L$27</f>
-        <v>259.34591994294789</v>
+        <f>[5]Model!$L$34</f>
+        <v>281.87848669008042</v>
       </c>
       <c r="R7" s="6">
         <f t="shared" si="1"/>
-        <v>-0.10260927355381355</v>
+        <v>-8.9245600355152166E-2</v>
       </c>
     </row>
     <row r="8" spans="1:18">

--- a/Universe.xlsx
+++ b/Universe.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="217" documentId="8_{1ECEE35D-5132-2D4F-A327-3EA275918476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E89A9F4-CAC8-47FF-903C-F69C1F81FFE0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4BF13245-5E03-604C-ABB7-16F5426C5494}"/>
+    <workbookView xWindow="-120" yWindow="680" windowWidth="29040" windowHeight="15840" xr2:uid="{4BF13245-5E03-604C-ABB7-16F5426C5494}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -472,9 +471,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -564,7 +563,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -908,11 +907,11 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="12" max="16" width="10.85546875" style="6"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="12" max="16" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:18" s="1" customFormat="1">
@@ -1126,7 +1125,7 @@
         <v>-8869</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" ref="H6:H7" si="0">F6-G6</f>
+        <f t="shared" ref="H6" si="0">F6-G6</f>
         <v>51637</v>
       </c>
       <c r="I6" s="2">
